--- a/data/pca/factorExposure/factorExposure_2017-05-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02435973147241309</v>
+        <v>0.0100802695706351</v>
       </c>
       <c r="C2">
-        <v>-0.004247031862538189</v>
+        <v>-0.042623528066878</v>
       </c>
       <c r="D2">
-        <v>0.03463721368387344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02958034361759207</v>
+      </c>
+      <c r="E2">
+        <v>0.03686443698665089</v>
+      </c>
+      <c r="F2">
+        <v>-0.009081155316119362</v>
+      </c>
+      <c r="G2">
+        <v>-0.09621791814003831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0199456881331393</v>
+        <v>0.04154067386749936</v>
       </c>
       <c r="C3">
-        <v>0.01735074714107916</v>
+        <v>-0.1021077578873571</v>
       </c>
       <c r="D3">
-        <v>0.1045786377404053</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0182961252945269</v>
+      </c>
+      <c r="E3">
+        <v>0.1039593800976798</v>
+      </c>
+      <c r="F3">
+        <v>-0.003026452692930931</v>
+      </c>
+      <c r="G3">
+        <v>-0.1843321875884121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02513720567286718</v>
+        <v>0.05518557053416967</v>
       </c>
       <c r="C4">
-        <v>-0.0003214645206415882</v>
+        <v>-0.06796952429018849</v>
       </c>
       <c r="D4">
-        <v>0.08554965001390319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02440015888600011</v>
+      </c>
+      <c r="E4">
+        <v>0.02991232669770577</v>
+      </c>
+      <c r="F4">
+        <v>-0.009604182038875572</v>
+      </c>
+      <c r="G4">
+        <v>-0.09840498499710246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01265784637927497</v>
+        <v>0.03632921894614679</v>
       </c>
       <c r="C6">
-        <v>-0.01062835886193262</v>
+        <v>-0.0524374055263423</v>
       </c>
       <c r="D6">
-        <v>0.08122557448396557</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01683206966544857</v>
+      </c>
+      <c r="E6">
+        <v>0.03420876036776137</v>
+      </c>
+      <c r="F6">
+        <v>-0.006901788477005818</v>
+      </c>
+      <c r="G6">
+        <v>-0.08218321832381209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.009141277190316212</v>
+        <v>0.02056746509855797</v>
       </c>
       <c r="C7">
-        <v>-0.007985555757834703</v>
+        <v>-0.03970084390509433</v>
       </c>
       <c r="D7">
-        <v>0.0353918425094309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01391834342475516</v>
+      </c>
+      <c r="E7">
+        <v>0.005128073912784646</v>
+      </c>
+      <c r="F7">
+        <v>0.00388430091950378</v>
+      </c>
+      <c r="G7">
+        <v>-0.1204871546004126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001791997794986713</v>
+        <v>0.003072818737863662</v>
       </c>
       <c r="C8">
-        <v>-0.002497035223255146</v>
+        <v>-0.0246073338194154</v>
       </c>
       <c r="D8">
-        <v>0.00241769731628024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.00401850122441217</v>
+      </c>
+      <c r="E8">
+        <v>0.02810330785966469</v>
+      </c>
+      <c r="F8">
+        <v>-0.005827913816163289</v>
+      </c>
+      <c r="G8">
+        <v>-0.07109898751965109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01793067314371691</v>
+        <v>0.03332263636612062</v>
       </c>
       <c r="C9">
-        <v>0.00377585074244873</v>
+        <v>-0.04877402467687652</v>
       </c>
       <c r="D9">
-        <v>0.06297623504657214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01645153964926682</v>
+      </c>
+      <c r="E9">
+        <v>0.01970017168932546</v>
+      </c>
+      <c r="F9">
+        <v>-0.006663149815831183</v>
+      </c>
+      <c r="G9">
+        <v>-0.09914102525554254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07017313264657703</v>
+        <v>0.09887900865424676</v>
       </c>
       <c r="C10">
-        <v>0.1760750151923085</v>
+        <v>0.1818837859868316</v>
       </c>
       <c r="D10">
-        <v>-0.09092905714563611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01501119697182022</v>
+      </c>
+      <c r="E10">
+        <v>0.0219208577840163</v>
+      </c>
+      <c r="F10">
+        <v>0.02297589571617156</v>
+      </c>
+      <c r="G10">
+        <v>-0.05906362115512428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0005719208725855814</v>
+        <v>0.03430656788796202</v>
       </c>
       <c r="C11">
-        <v>-0.004401097632563404</v>
+        <v>-0.05438593839373926</v>
       </c>
       <c r="D11">
-        <v>0.0565491212643242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002397022275541181</v>
+      </c>
+      <c r="E11">
+        <v>0.01632213981071216</v>
+      </c>
+      <c r="F11">
+        <v>-0.02154692489814937</v>
+      </c>
+      <c r="G11">
+        <v>-0.09192784397155129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004110844605584179</v>
+        <v>0.03586050855192812</v>
       </c>
       <c r="C12">
-        <v>-0.00530428912777721</v>
+        <v>-0.04902611876101504</v>
       </c>
       <c r="D12">
-        <v>0.04823682876138791</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006442845911779401</v>
+      </c>
+      <c r="E12">
+        <v>0.00756126878763459</v>
+      </c>
+      <c r="F12">
+        <v>-0.002174486185888374</v>
+      </c>
+      <c r="G12">
+        <v>-0.08363332780960421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02541756036514692</v>
+        <v>0.01538674047046994</v>
       </c>
       <c r="C13">
-        <v>0.003866424981708683</v>
+        <v>-0.04155398157999381</v>
       </c>
       <c r="D13">
-        <v>0.039468148724246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02648444681500168</v>
+      </c>
+      <c r="E13">
+        <v>0.03609850961010417</v>
+      </c>
+      <c r="F13">
+        <v>-0.005309271704899655</v>
+      </c>
+      <c r="G13">
+        <v>-0.1363979860339823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00951836746084829</v>
+        <v>0.008456847816694342</v>
       </c>
       <c r="C14">
-        <v>0.004082281460906368</v>
+        <v>-0.02863048630902973</v>
       </c>
       <c r="D14">
-        <v>0.01590076892748005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01006885253501547</v>
+      </c>
+      <c r="E14">
+        <v>0.007015925817904048</v>
+      </c>
+      <c r="F14">
+        <v>0.007965519787121041</v>
+      </c>
+      <c r="G14">
+        <v>-0.1036602599058127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.002520957602055672</v>
+        <v>0.03301931235005151</v>
       </c>
       <c r="C16">
-        <v>0.003592452554490983</v>
+        <v>-0.0472918701313912</v>
       </c>
       <c r="D16">
-        <v>0.04485551662870369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.001871311195741614</v>
+      </c>
+      <c r="E16">
+        <v>0.01402733655746949</v>
+      </c>
+      <c r="F16">
+        <v>-0.002924121643502238</v>
+      </c>
+      <c r="G16">
+        <v>-0.09255965777495269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.0123395146799189</v>
+        <v>0.02147621102679915</v>
       </c>
       <c r="C19">
-        <v>-0.00437140506721021</v>
+        <v>-0.05419274186597554</v>
       </c>
       <c r="D19">
-        <v>0.04848422850049037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01889210874366071</v>
+      </c>
+      <c r="E19">
+        <v>0.07442068772951732</v>
+      </c>
+      <c r="F19">
+        <v>-0.02071384709981762</v>
+      </c>
+      <c r="G19">
+        <v>-0.1336533177870587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.009933131225546779</v>
+        <v>0.01481937823656551</v>
       </c>
       <c r="C20">
-        <v>-0.004406902402972449</v>
+        <v>-0.04012995249952971</v>
       </c>
       <c r="D20">
-        <v>0.03504207645833369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01429174257346598</v>
+      </c>
+      <c r="E20">
+        <v>0.03565812679259943</v>
+      </c>
+      <c r="F20">
+        <v>0.01316757554675106</v>
+      </c>
+      <c r="G20">
+        <v>-0.1113986640999045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01500132998704361</v>
+        <v>0.01206070764811355</v>
       </c>
       <c r="C21">
-        <v>0.001170053317514931</v>
+        <v>-0.03950561939468831</v>
       </c>
       <c r="D21">
-        <v>0.03246172775161854</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01897016406637028</v>
+      </c>
+      <c r="E21">
+        <v>0.04944351320444294</v>
+      </c>
+      <c r="F21">
+        <v>-0.001595887511235442</v>
+      </c>
+      <c r="G21">
+        <v>-0.1301908178335562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001469636051057248</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0003451964779915339</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0005685944926406014</v>
+      </c>
+      <c r="E22">
+        <v>0.002904866523122499</v>
+      </c>
+      <c r="F22">
+        <v>-0.001430248296701046</v>
+      </c>
+      <c r="G22">
+        <v>-0.004529921000511903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.00147401674509036</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0003447895222134404</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0005687192489072576</v>
+      </c>
+      <c r="E23">
+        <v>0.002910951521238783</v>
+      </c>
+      <c r="F23">
+        <v>-0.001428533193515893</v>
+      </c>
+      <c r="G23">
+        <v>-0.004543457994568777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.00196385516984325</v>
+        <v>0.02835829799183424</v>
       </c>
       <c r="C24">
-        <v>-0.00929380763723292</v>
+        <v>-0.05167687301419671</v>
       </c>
       <c r="D24">
-        <v>0.04968051564876673</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007150680588013787</v>
+      </c>
+      <c r="E24">
+        <v>0.01059351425339672</v>
+      </c>
+      <c r="F24">
+        <v>-0.01316072092374175</v>
+      </c>
+      <c r="G24">
+        <v>-0.09215878300256045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0131506298828937</v>
+        <v>0.0426363163517372</v>
       </c>
       <c r="C25">
-        <v>0.002887386906828937</v>
+        <v>-0.05885261632747051</v>
       </c>
       <c r="D25">
-        <v>0.0590037776160519</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01114885427746895</v>
+      </c>
+      <c r="E25">
+        <v>0.003040197886375792</v>
+      </c>
+      <c r="F25">
+        <v>-0.006929717487493843</v>
+      </c>
+      <c r="G25">
+        <v>-0.1018960296540069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02251603849620609</v>
+        <v>0.01417445477287751</v>
       </c>
       <c r="C26">
-        <v>-0.00378267573888732</v>
+        <v>-0.0111702736846732</v>
       </c>
       <c r="D26">
-        <v>0.000740874735662388</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02404189955925513</v>
+      </c>
+      <c r="E26">
+        <v>0.009417027294560886</v>
+      </c>
+      <c r="F26">
+        <v>0.009831097312614841</v>
+      </c>
+      <c r="G26">
+        <v>-0.08181428931200617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1058599511095482</v>
+        <v>0.1260377584302235</v>
       </c>
       <c r="C28">
-        <v>0.227217390166317</v>
+        <v>0.2384924749727119</v>
       </c>
       <c r="D28">
-        <v>-0.1154255276411988</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.005955370411894836</v>
+      </c>
+      <c r="E28">
+        <v>0.009192008749053545</v>
+      </c>
+      <c r="F28">
+        <v>0.01771819835997033</v>
+      </c>
+      <c r="G28">
+        <v>-0.04623853563987275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01174775354357214</v>
+        <v>0.009510060635873077</v>
       </c>
       <c r="C29">
-        <v>0.01004610873503701</v>
+        <v>-0.02248495568352005</v>
       </c>
       <c r="D29">
-        <v>0.01859265414736369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009018105771606999</v>
+      </c>
+      <c r="E29">
+        <v>0.004130684399215027</v>
+      </c>
+      <c r="F29">
+        <v>0.01640633914423881</v>
+      </c>
+      <c r="G29">
+        <v>-0.0973023417604718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01901263563228815</v>
+        <v>0.04113918354598543</v>
       </c>
       <c r="C30">
-        <v>-0.01934185096758354</v>
+        <v>-0.07137859955500453</v>
       </c>
       <c r="D30">
-        <v>0.1058872837311668</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02868825743378775</v>
+      </c>
+      <c r="E30">
+        <v>0.05559860055140128</v>
+      </c>
+      <c r="F30">
+        <v>-0.04341588702222029</v>
+      </c>
+      <c r="G30">
+        <v>-0.1267355278990546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01567181128832472</v>
+        <v>0.0527127757294777</v>
       </c>
       <c r="C31">
-        <v>0.02318155436023923</v>
+        <v>-0.03793055666380344</v>
       </c>
       <c r="D31">
-        <v>0.0354918951919477</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003884894742401481</v>
+      </c>
+      <c r="E31">
+        <v>0.001201450439110495</v>
+      </c>
+      <c r="F31">
+        <v>0.0409097776211834</v>
+      </c>
+      <c r="G31">
+        <v>-0.1007788112421967</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0003744948113809073</v>
+        <v>0.001915838872140716</v>
       </c>
       <c r="C32">
-        <v>0.02172924422969748</v>
+        <v>-0.0238214935835491</v>
       </c>
       <c r="D32">
-        <v>0.003769606491642837</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.003461367590425563</v>
+      </c>
+      <c r="E32">
+        <v>0.02819776507110673</v>
+      </c>
+      <c r="F32">
+        <v>-0.03764441322638711</v>
+      </c>
+      <c r="G32">
+        <v>-0.07502440302916959</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01323447042311386</v>
+        <v>0.02738907621568627</v>
       </c>
       <c r="C33">
-        <v>0.001426479463640742</v>
+        <v>-0.05122216301486242</v>
       </c>
       <c r="D33">
-        <v>0.0464181547198368</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01575374148255703</v>
+      </c>
+      <c r="E33">
+        <v>0.0425906067912898</v>
+      </c>
+      <c r="F33">
+        <v>-0.01519322020578558</v>
+      </c>
+      <c r="G33">
+        <v>-0.1612839243366663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0009812032937831215</v>
+        <v>0.03990203411571464</v>
       </c>
       <c r="C34">
-        <v>0.01078655566353666</v>
+        <v>-0.06076521761740072</v>
       </c>
       <c r="D34">
-        <v>0.05672472785750893</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004650394699195747</v>
+      </c>
+      <c r="E34">
+        <v>0.005445267235789975</v>
+      </c>
+      <c r="F34">
+        <v>-0.02093245606628752</v>
+      </c>
+      <c r="G34">
+        <v>-0.09553438339294294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01571808803741174</v>
+        <v>0.01622863200575073</v>
       </c>
       <c r="C36">
-        <v>0.009566578076439613</v>
+        <v>-0.009363228639909345</v>
       </c>
       <c r="D36">
-        <v>0.006240953599179132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01244009856493322</v>
+      </c>
+      <c r="E36">
+        <v>0.008394164537011483</v>
+      </c>
+      <c r="F36">
+        <v>0.007248248712555957</v>
+      </c>
+      <c r="G36">
+        <v>-0.09092141456739304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003516277720324268</v>
+        <v>0.03115950131250441</v>
       </c>
       <c r="C38">
-        <v>0.02549643417040869</v>
+        <v>-0.03122818606805819</v>
       </c>
       <c r="D38">
-        <v>0.04922016060253486</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007440466693282033</v>
+      </c>
+      <c r="E38">
+        <v>0.006197581530848865</v>
+      </c>
+      <c r="F38">
+        <v>0.01971941154220769</v>
+      </c>
+      <c r="G38">
+        <v>-0.0867637765999444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.002131076230777052</v>
+        <v>0.03661863904260652</v>
       </c>
       <c r="C39">
-        <v>-0.02905242459865501</v>
+        <v>-0.08097467143870817</v>
       </c>
       <c r="D39">
-        <v>0.1026606513021748</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01146201153407935</v>
+      </c>
+      <c r="E39">
+        <v>0.02701707700700412</v>
+      </c>
+      <c r="F39">
+        <v>-0.0228114928460818</v>
+      </c>
+      <c r="G39">
+        <v>-0.08927539039363243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01356797409449883</v>
+        <v>0.01323621023038779</v>
       </c>
       <c r="C40">
-        <v>0.003671161282539664</v>
+        <v>-0.04061730277235912</v>
       </c>
       <c r="D40">
-        <v>0.04125109090026595</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01499357148117625</v>
+      </c>
+      <c r="E40">
+        <v>0.03230479086030195</v>
+      </c>
+      <c r="F40">
+        <v>0.007396855004071836</v>
+      </c>
+      <c r="G40">
+        <v>-0.1197142847690313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01213929438126917</v>
+        <v>0.02069924770587036</v>
       </c>
       <c r="C41">
-        <v>0.02041452514498229</v>
+        <v>-0.002298215009905053</v>
       </c>
       <c r="D41">
-        <v>-0.009843019248140128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004322644256632513</v>
+      </c>
+      <c r="E41">
+        <v>0.006370375122440454</v>
+      </c>
+      <c r="F41">
+        <v>0.01535699160551529</v>
+      </c>
+      <c r="G41">
+        <v>-0.08271316479891384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08040200979490296</v>
+        <v>0.0103351427523582</v>
       </c>
       <c r="C42">
-        <v>-0.0524261771310654</v>
+        <v>-0.03385492927868926</v>
       </c>
       <c r="D42">
-        <v>0.1688061068093631</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08961045997276638</v>
+      </c>
+      <c r="E42">
+        <v>0.01556611489057654</v>
+      </c>
+      <c r="F42">
+        <v>0.04699749775532854</v>
+      </c>
+      <c r="G42">
+        <v>0.04085090760010426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01251254388346447</v>
+        <v>0.0350635922700758</v>
       </c>
       <c r="C43">
-        <v>0.01923620105938394</v>
+        <v>-0.01830640064217839</v>
       </c>
       <c r="D43">
-        <v>-0.004459685201445031</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005886172746368667</v>
+      </c>
+      <c r="E43">
+        <v>0.02106637588724087</v>
+      </c>
+      <c r="F43">
+        <v>0.006005690878029384</v>
+      </c>
+      <c r="G43">
+        <v>-0.1203366639991563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002305104222903622</v>
+        <v>0.01286022744620901</v>
       </c>
       <c r="C44">
-        <v>-0.003081253662493143</v>
+        <v>-0.05868703011373959</v>
       </c>
       <c r="D44">
-        <v>0.05734437723016855</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.006966144149951712</v>
+      </c>
+      <c r="E44">
+        <v>0.02310882797506888</v>
+      </c>
+      <c r="F44">
+        <v>0.004101417360678639</v>
+      </c>
+      <c r="G44">
+        <v>-0.1112780200550728</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01129541664820496</v>
+        <v>0.007542558128131309</v>
       </c>
       <c r="C46">
-        <v>0.001574136507973956</v>
+        <v>-0.01728114504661139</v>
       </c>
       <c r="D46">
-        <v>0.001378407562594881</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01276677276486433</v>
+      </c>
+      <c r="E46">
+        <v>0.004276023097066012</v>
+      </c>
+      <c r="F46">
+        <v>0.01580886707499704</v>
+      </c>
+      <c r="G46">
+        <v>-0.1045314199902655</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.01169932908768641</v>
+        <v>0.07747002087831974</v>
       </c>
       <c r="C47">
-        <v>0.03018147063306409</v>
+        <v>-0.06786704131752584</v>
       </c>
       <c r="D47">
-        <v>0.07336748344921383</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005087670017838193</v>
+      </c>
+      <c r="E47">
+        <v>-0.006299470866165177</v>
+      </c>
+      <c r="F47">
+        <v>0.05566111679821817</v>
+      </c>
+      <c r="G47">
+        <v>-0.08782275683710268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.006705527820476141</v>
+        <v>0.01924561356488746</v>
       </c>
       <c r="C48">
-        <v>0.01213396348342955</v>
+        <v>-0.01280894512027501</v>
       </c>
       <c r="D48">
-        <v>0.01941682138953147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002007723623762274</v>
+      </c>
+      <c r="E48">
+        <v>0.004101027560870713</v>
+      </c>
+      <c r="F48">
+        <v>0.02069293666468671</v>
+      </c>
+      <c r="G48">
+        <v>-0.09604659395815289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.01640594716472084</v>
+        <v>0.07500526384920295</v>
       </c>
       <c r="C50">
-        <v>0.03612016528682806</v>
+        <v>-0.07212852094801364</v>
       </c>
       <c r="D50">
-        <v>0.07191321707120325</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002235485326419854</v>
+      </c>
+      <c r="E50">
+        <v>-0.003127425857788363</v>
+      </c>
+      <c r="F50">
+        <v>0.05704238366708202</v>
+      </c>
+      <c r="G50">
+        <v>-0.09494087895484826</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007436251295327359</v>
+        <v>0.01437480595606743</v>
       </c>
       <c r="C51">
-        <v>0.002147986156319932</v>
+        <v>-0.03621083320864815</v>
       </c>
       <c r="D51">
-        <v>0.0190581015156643</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01057322159110755</v>
+      </c>
+      <c r="E51">
+        <v>0.02513506809303583</v>
+      </c>
+      <c r="F51">
+        <v>-0.02445140380678481</v>
+      </c>
+      <c r="G51">
+        <v>-0.1229308680407192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01597108468661923</v>
+        <v>0.08120015434207413</v>
       </c>
       <c r="C53">
-        <v>0.03207390694634911</v>
+        <v>-0.08588945430207723</v>
       </c>
       <c r="D53">
-        <v>0.1331150540118607</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003277784868802233</v>
+      </c>
+      <c r="E53">
+        <v>-0.0246317643530458</v>
+      </c>
+      <c r="F53">
+        <v>0.06394370974217965</v>
+      </c>
+      <c r="G53">
+        <v>-0.09471487338103933</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01164589168458725</v>
+        <v>0.03253878404758713</v>
       </c>
       <c r="C54">
-        <v>0.03535843394420349</v>
+        <v>-0.01782346157601417</v>
       </c>
       <c r="D54">
-        <v>-0.002394654171893149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001598715261638924</v>
+      </c>
+      <c r="E54">
+        <v>0.01673072632738168</v>
+      </c>
+      <c r="F54">
+        <v>0.006100913166700585</v>
+      </c>
+      <c r="G54">
+        <v>-0.1073684322405719</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.008488682079516609</v>
+        <v>0.0717913025283366</v>
       </c>
       <c r="C55">
-        <v>0.01921398056222865</v>
+        <v>-0.06961776393605026</v>
       </c>
       <c r="D55">
-        <v>0.1094804296510412</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.00500245108947158</v>
+      </c>
+      <c r="E55">
+        <v>-0.02297331140947194</v>
+      </c>
+      <c r="F55">
+        <v>0.06340825900399072</v>
+      </c>
+      <c r="G55">
+        <v>-0.0703225278322525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01734677256563119</v>
+        <v>0.1363950143910407</v>
       </c>
       <c r="C56">
-        <v>0.04526767120365798</v>
+        <v>-0.1090886960827008</v>
       </c>
       <c r="D56">
-        <v>0.1627744858529558</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01242733919061596</v>
+      </c>
+      <c r="E56">
+        <v>-0.0316844744463355</v>
+      </c>
+      <c r="F56">
+        <v>0.08015924180289896</v>
+      </c>
+      <c r="G56">
+        <v>-0.0469926669641354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02380969097053798</v>
+        <v>0.005228227848488059</v>
       </c>
       <c r="C57">
-        <v>-0.003673921784250076</v>
+        <v>-0.00728520966363132</v>
       </c>
       <c r="D57">
-        <v>0.03583260921837315</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02340917633425822</v>
+      </c>
+      <c r="E57">
+        <v>0.02557760218942246</v>
+      </c>
+      <c r="F57">
+        <v>-0.01050642705028574</v>
+      </c>
+      <c r="G57">
+        <v>-0.02634710718898955</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.02271111883410253</v>
+        <v>0.05074133984889844</v>
       </c>
       <c r="C58">
-        <v>0.04409437859659551</v>
+        <v>-0.05480456785688055</v>
       </c>
       <c r="D58">
-        <v>0.1610087330233772</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02231092644461112</v>
+      </c>
+      <c r="E58">
+        <v>0.9180231140651764</v>
+      </c>
+      <c r="F58">
+        <v>0.2603836764218724</v>
+      </c>
+      <c r="G58">
+        <v>0.2175946889718904</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.111128271183376</v>
+        <v>0.1604503918880678</v>
       </c>
       <c r="C59">
-        <v>0.2506335347988788</v>
+        <v>0.2032303675289403</v>
       </c>
       <c r="D59">
-        <v>-0.09948349624143446</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01145604620240897</v>
+      </c>
+      <c r="E59">
+        <v>0.021574662504089</v>
+      </c>
+      <c r="F59">
+        <v>0.003862224600009804</v>
+      </c>
+      <c r="G59">
+        <v>-0.03769614082912795</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.09400343687613275</v>
+        <v>0.2883017573500203</v>
       </c>
       <c r="C60">
-        <v>0.1629815286565195</v>
+        <v>-0.1068069721546074</v>
       </c>
       <c r="D60">
-        <v>0.1429848605172829</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01121145891498313</v>
+      </c>
+      <c r="E60">
+        <v>-0.003260637404929992</v>
+      </c>
+      <c r="F60">
+        <v>-0.3386922830120976</v>
+      </c>
+      <c r="G60">
+        <v>0.161508590300207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002469116971866356</v>
+        <v>0.03850051709825536</v>
       </c>
       <c r="C61">
-        <v>-0.004172641690605004</v>
+        <v>-0.06689896608009079</v>
       </c>
       <c r="D61">
-        <v>0.07559784203643488</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005383513220594782</v>
+      </c>
+      <c r="E61">
+        <v>0.02141092833974008</v>
+      </c>
+      <c r="F61">
+        <v>-0.01440159996720402</v>
+      </c>
+      <c r="G61">
+        <v>-0.09310577787138796</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.00791613756845732</v>
+        <v>0.01518844888572785</v>
       </c>
       <c r="C63">
-        <v>-0.00154772575562205</v>
+        <v>-0.03015322733446756</v>
       </c>
       <c r="D63">
-        <v>0.02589088696929828</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008589072620494716</v>
+      </c>
+      <c r="E63">
+        <v>0.004124975235705205</v>
+      </c>
+      <c r="F63">
+        <v>0.01987323255142715</v>
+      </c>
+      <c r="G63">
+        <v>-0.09436825201949649</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0138920633525117</v>
+        <v>0.04843369114331169</v>
       </c>
       <c r="C64">
-        <v>0.01681463607426272</v>
+        <v>-0.04760291109592229</v>
       </c>
       <c r="D64">
-        <v>0.0655255666620783</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006210149373364744</v>
+      </c>
+      <c r="E64">
+        <v>0.00515485491369588</v>
+      </c>
+      <c r="F64">
+        <v>-0.004699073788573729</v>
+      </c>
+      <c r="G64">
+        <v>-0.09675414229504907</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02137285361203079</v>
+        <v>0.07434772027978008</v>
       </c>
       <c r="C65">
-        <v>0.003275283521016081</v>
+        <v>-0.05989105861733244</v>
       </c>
       <c r="D65">
-        <v>0.108086396197749</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01652420272411349</v>
+      </c>
+      <c r="E65">
+        <v>0.03674091208824191</v>
+      </c>
+      <c r="F65">
+        <v>-0.02861497393773133</v>
+      </c>
+      <c r="G65">
+        <v>-0.0369969813637572</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.002331757059644501</v>
+        <v>0.05112540576544085</v>
       </c>
       <c r="C66">
-        <v>-0.02920459401833368</v>
+        <v>-0.1083398090706463</v>
       </c>
       <c r="D66">
-        <v>0.1383009725739554</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01144946363516468</v>
+      </c>
+      <c r="E66">
+        <v>0.03766740995703573</v>
+      </c>
+      <c r="F66">
+        <v>-0.03547509887038525</v>
+      </c>
+      <c r="G66">
+        <v>-0.1049663550042757</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0145339360388226</v>
+        <v>0.05421283471759614</v>
       </c>
       <c r="C67">
-        <v>0.04160648201531059</v>
+        <v>-0.03462892329752357</v>
       </c>
       <c r="D67">
-        <v>0.0670349503742162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005973121755759304</v>
+      </c>
+      <c r="E67">
+        <v>-0.001760732212005391</v>
+      </c>
+      <c r="F67">
+        <v>0.01821826027258097</v>
+      </c>
+      <c r="G67">
+        <v>-0.0766489231415987</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1261563319400145</v>
+        <v>0.156279393444726</v>
       </c>
       <c r="C68">
-        <v>0.2396321620660114</v>
+        <v>0.2700201123817718</v>
       </c>
       <c r="D68">
-        <v>-0.147892871125708</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005991181597252736</v>
+      </c>
+      <c r="E68">
+        <v>0.01408095354477991</v>
+      </c>
+      <c r="F68">
+        <v>0.03549275719347231</v>
+      </c>
+      <c r="G68">
+        <v>-0.02691795875220116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.01017192578384728</v>
+        <v>0.0827102289005078</v>
       </c>
       <c r="C69">
-        <v>0.0349122900846613</v>
+        <v>-0.07097207393412698</v>
       </c>
       <c r="D69">
-        <v>0.08028338603229675</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008840900951910423</v>
+      </c>
+      <c r="E69">
+        <v>-0.01971492755787806</v>
+      </c>
+      <c r="F69">
+        <v>0.03561927747521575</v>
+      </c>
+      <c r="G69">
+        <v>-0.1040146878020969</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,122 +2301,203 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.0988617309390713</v>
+        <v>0.1414578205087836</v>
       </c>
       <c r="C71">
-        <v>0.2015843424073658</v>
+        <v>0.2283922807951876</v>
       </c>
       <c r="D71">
-        <v>-0.09499082523875536</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002523673464473553</v>
+      </c>
+      <c r="E71">
+        <v>0.03691123065585807</v>
+      </c>
+      <c r="F71">
+        <v>0.02088913046485644</v>
+      </c>
+      <c r="G71">
+        <v>-0.06840376260475856</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.003313651470763075</v>
+        <v>0.08491697943550774</v>
       </c>
       <c r="C72">
-        <v>0.01992935253845493</v>
+        <v>-0.07115451209146537</v>
       </c>
       <c r="D72">
-        <v>0.1030808519533811</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008572431870780141</v>
+      </c>
+      <c r="E72">
+        <v>-0.005798797625814991</v>
+      </c>
+      <c r="F72">
+        <v>-0.04206293507385395</v>
+      </c>
+      <c r="G72">
+        <v>-0.08960027504069919</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.110785213089726</v>
+        <v>0.3769193156507611</v>
       </c>
       <c r="C73">
-        <v>0.1742646552931744</v>
+        <v>-0.1193771861509023</v>
       </c>
       <c r="D73">
-        <v>0.278714139084787</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01997710840301905</v>
+      </c>
+      <c r="E73">
+        <v>0.07434380985481068</v>
+      </c>
+      <c r="F73">
+        <v>-0.5764656559000236</v>
+      </c>
+      <c r="G73">
+        <v>0.2881851431345069</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.01791129863838184</v>
+        <v>0.1045511498470881</v>
       </c>
       <c r="C74">
-        <v>0.04899495382119248</v>
+        <v>-0.1098596617399214</v>
       </c>
       <c r="D74">
-        <v>0.1801025801776167</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009355496757466247</v>
+      </c>
+      <c r="E74">
+        <v>-0.006535230909140468</v>
+      </c>
+      <c r="F74">
+        <v>0.06831315033613503</v>
+      </c>
+      <c r="G74">
+        <v>-0.08635775057217679</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.0398869841747193</v>
+        <v>0.2465530284762371</v>
       </c>
       <c r="C75">
-        <v>0.1077533338529</v>
+        <v>-0.1526913464611716</v>
       </c>
       <c r="D75">
-        <v>0.2988855625077871</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03067228404013373</v>
+      </c>
+      <c r="E75">
+        <v>-0.06721849897268321</v>
+      </c>
+      <c r="F75">
+        <v>0.1688832154697309</v>
+      </c>
+      <c r="G75">
+        <v>0.01283214464245846</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.01560897982513827</v>
+        <v>0.1178891593083632</v>
       </c>
       <c r="C76">
-        <v>0.05853799037103202</v>
+        <v>-0.10951609224258</v>
       </c>
       <c r="D76">
-        <v>0.2164672048984478</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01814715225648841</v>
+      </c>
+      <c r="E76">
+        <v>-0.02913176609561696</v>
+      </c>
+      <c r="F76">
+        <v>0.1061552556771904</v>
+      </c>
+      <c r="G76">
+        <v>-0.06039459073289591</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01771609294614419</v>
+        <v>0.06786520061724874</v>
       </c>
       <c r="C77">
-        <v>0.0112334718938851</v>
+        <v>-0.05991438894039202</v>
       </c>
       <c r="D77">
-        <v>0.07040973667307629</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01091431856642959</v>
+      </c>
+      <c r="E77">
+        <v>0.04480370452821113</v>
+      </c>
+      <c r="F77">
+        <v>-0.01132314296742084</v>
+      </c>
+      <c r="G77">
+        <v>-0.06272265771302472</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.00555264056812159</v>
+        <v>0.04135063336040285</v>
       </c>
       <c r="C78">
-        <v>0.001668739851922414</v>
+        <v>-0.05177739493920771</v>
       </c>
       <c r="D78">
-        <v>0.05828744935761494</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005770375713440626</v>
+      </c>
+      <c r="E78">
+        <v>0.02680545950227891</v>
+      </c>
+      <c r="F78">
+        <v>-0.03778358928646108</v>
+      </c>
+      <c r="G78">
+        <v>-0.1002852031001881</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1797,66 +2508,111 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.02385257962885535</v>
+        <v>0.04321463726830025</v>
       </c>
       <c r="C80">
-        <v>0.02251067556234089</v>
+        <v>-0.05105877687900634</v>
       </c>
       <c r="D80">
-        <v>0.08503230652156481</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01310679849013585</v>
+      </c>
+      <c r="E80">
+        <v>0.02376777515908638</v>
+      </c>
+      <c r="F80">
+        <v>-0.01438927683637764</v>
+      </c>
+      <c r="G80">
+        <v>-0.05248598418269124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.02452322520768788</v>
+        <v>0.1359497826118965</v>
       </c>
       <c r="C81">
-        <v>0.06389136976386574</v>
+        <v>-0.09588021951792318</v>
       </c>
       <c r="D81">
-        <v>0.1734654162989025</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01491361799692144</v>
+      </c>
+      <c r="E81">
+        <v>-0.03581795078315352</v>
+      </c>
+      <c r="F81">
+        <v>0.126299164403943</v>
+      </c>
+      <c r="G81">
+        <v>-0.02293515111538336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1318231283319728</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07774541514786455</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.008976353926398823</v>
+      </c>
+      <c r="E82">
+        <v>-0.0981465290013903</v>
+      </c>
+      <c r="F82">
+        <v>0.0490263895723583</v>
+      </c>
+      <c r="G82">
+        <v>-0.07433729587959495</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01146053335677174</v>
+        <v>0.0358609360975739</v>
       </c>
       <c r="C83">
-        <v>0.01463216497261258</v>
+        <v>-0.02987438887023909</v>
       </c>
       <c r="D83">
-        <v>0.03543911451350652</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.005918369336961704</v>
+      </c>
+      <c r="E83">
+        <v>0.03037609865702275</v>
+      </c>
+      <c r="F83">
+        <v>-0.03014301653190416</v>
+      </c>
+      <c r="G83">
+        <v>-0.06028071752738184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.04228207219433919</v>
+        <v>0.2120631792580317</v>
       </c>
       <c r="C85">
-        <v>0.08306566397279758</v>
+        <v>-0.1474328600209615</v>
       </c>
       <c r="D85">
-        <v>0.2699804254746574</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01756330080184273</v>
+      </c>
+      <c r="E85">
+        <v>-0.1026548348905432</v>
+      </c>
+      <c r="F85">
+        <v>0.1237125864335154</v>
+      </c>
+      <c r="G85">
+        <v>0.06301865161329645</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01117399769159971</v>
+        <v>0.01366058810863069</v>
       </c>
       <c r="C86">
-        <v>0.01033251567637041</v>
+        <v>-0.02804725368768815</v>
       </c>
       <c r="D86">
-        <v>0.06125175798243315</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01181534620637267</v>
+      </c>
+      <c r="E86">
+        <v>0.05132847467206392</v>
+      </c>
+      <c r="F86">
+        <v>-0.0220356560946415</v>
+      </c>
+      <c r="G86">
+        <v>-0.1922039842646664</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.004349213930045388</v>
+        <v>0.02098845238818336</v>
       </c>
       <c r="C87">
-        <v>-0.0118638165611417</v>
+        <v>-0.02321635335389427</v>
       </c>
       <c r="D87">
-        <v>0.0477415258054253</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01185161357647699</v>
+      </c>
+      <c r="E87">
+        <v>0.09136450241792556</v>
+      </c>
+      <c r="F87">
+        <v>-0.01015981661164239</v>
+      </c>
+      <c r="G87">
+        <v>-0.1213220652651035</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03377090568807276</v>
+        <v>0.09346703767698228</v>
       </c>
       <c r="C88">
-        <v>0.01802475020899587</v>
+        <v>-0.06854869465999534</v>
       </c>
       <c r="D88">
-        <v>0.05698755402556836</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0221803546614677</v>
+      </c>
+      <c r="E88">
+        <v>-0.002676430803906597</v>
+      </c>
+      <c r="F88">
+        <v>0.01920506974392242</v>
+      </c>
+      <c r="G88">
+        <v>-0.09438779888638675</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1840521376887622</v>
+        <v>0.2331459489867117</v>
       </c>
       <c r="C89">
-        <v>0.3686859603924748</v>
+        <v>0.3667100523280913</v>
       </c>
       <c r="D89">
-        <v>-0.1741525229732029</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0004693140966341211</v>
+      </c>
+      <c r="E89">
+        <v>-0.01325538625899102</v>
+      </c>
+      <c r="F89">
+        <v>0.02489002448333937</v>
+      </c>
+      <c r="G89">
+        <v>-0.06938389108194044</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1458113202143265</v>
+        <v>0.2091352424308162</v>
       </c>
       <c r="C90">
-        <v>0.2985642523441926</v>
+        <v>0.3172809716061769</v>
       </c>
       <c r="D90">
-        <v>-0.1564594292143305</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.00411931097462665</v>
+      </c>
+      <c r="E90">
+        <v>0.002471792980712942</v>
+      </c>
+      <c r="F90">
+        <v>0.04750820780294213</v>
+      </c>
+      <c r="G90">
+        <v>-0.04549095786472344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.03543254508223272</v>
+        <v>0.1853482777027505</v>
       </c>
       <c r="C91">
-        <v>0.09992314539483096</v>
+        <v>-0.1405804900682285</v>
       </c>
       <c r="D91">
-        <v>0.2264869311500017</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02208998485814417</v>
+      </c>
+      <c r="E91">
+        <v>-0.06400268549765281</v>
+      </c>
+      <c r="F91">
+        <v>0.1435840306442547</v>
+      </c>
+      <c r="G91">
+        <v>-0.03525153702965769</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1118426609681279</v>
+        <v>0.200356237197958</v>
       </c>
       <c r="C92">
-        <v>0.2977844111538469</v>
+        <v>0.2573398803111036</v>
       </c>
       <c r="D92">
-        <v>-0.0621752211869055</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03757867670000199</v>
+      </c>
+      <c r="E92">
+        <v>0.04561228580206177</v>
+      </c>
+      <c r="F92">
+        <v>0.0608896761205447</v>
+      </c>
+      <c r="G92">
+        <v>-0.1185560241785698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1512133968183002</v>
+        <v>0.2325815810386019</v>
       </c>
       <c r="C93">
-        <v>0.320877079722907</v>
+        <v>0.3130034029837004</v>
       </c>
       <c r="D93">
-        <v>-0.1273828342956422</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01089928476885932</v>
+      </c>
+      <c r="E93">
+        <v>0.009891667505557592</v>
+      </c>
+      <c r="F93">
+        <v>0.04286717706624672</v>
+      </c>
+      <c r="G93">
+        <v>-0.05977303559414819</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.07676476466358849</v>
+        <v>0.3191810537968482</v>
       </c>
       <c r="C94">
-        <v>0.1400692465397677</v>
+        <v>-0.1789058635854242</v>
       </c>
       <c r="D94">
-        <v>0.2852775463935362</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01809080037119934</v>
+      </c>
+      <c r="E94">
+        <v>-0.2072378016172656</v>
+      </c>
+      <c r="F94">
+        <v>0.4814752283726605</v>
+      </c>
+      <c r="G94">
+        <v>0.4255719713571261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.0008939390181094937</v>
+        <v>0.1008746686752561</v>
       </c>
       <c r="C95">
-        <v>0.01793275283066805</v>
+        <v>-0.08991350870387717</v>
       </c>
       <c r="D95">
-        <v>0.1297071508305522</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.0110070334014982</v>
+      </c>
+      <c r="E95">
+        <v>0.07650431695994238</v>
+      </c>
+      <c r="F95">
+        <v>-0.2027266220420683</v>
+      </c>
+      <c r="G95">
+        <v>0.03723293755036775</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.05426998365316508</v>
+        <v>0.1966964366856741</v>
       </c>
       <c r="C98">
-        <v>0.1400474978843588</v>
+        <v>-0.04583812197942078</v>
       </c>
       <c r="D98">
-        <v>0.1551678911790218</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01357536154703259</v>
+      </c>
+      <c r="E98">
+        <v>0.07011826188048985</v>
+      </c>
+      <c r="F98">
+        <v>-0.2370218238431227</v>
+      </c>
+      <c r="G98">
+        <v>0.008530832480460429</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01152533779449613</v>
+        <v>0.009293397722657006</v>
       </c>
       <c r="C101">
-        <v>0.00994025191125142</v>
+        <v>-0.02250283478255994</v>
       </c>
       <c r="D101">
-        <v>0.01848882198448249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.008861302380103197</v>
+      </c>
+      <c r="E101">
+        <v>0.003958333445616513</v>
+      </c>
+      <c r="F101">
+        <v>0.01736204633904894</v>
+      </c>
+      <c r="G101">
+        <v>-0.0962144270434887</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02882557923097223</v>
+        <v>0.1158835293239247</v>
       </c>
       <c r="C102">
-        <v>0.04131988510682517</v>
+        <v>-0.08394847315535597</v>
       </c>
       <c r="D102">
-        <v>0.132537697447568</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0007816985601374229</v>
+      </c>
+      <c r="E102">
+        <v>-0.03590465115992922</v>
+      </c>
+      <c r="F102">
+        <v>0.04125366510052458</v>
+      </c>
+      <c r="G102">
+        <v>-0.01741560367264727</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.8947050355854161</v>
+        <v>0.02117364383010783</v>
       </c>
       <c r="C104">
-        <v>-0.4249991730285651</v>
+        <v>0.02912323677856561</v>
       </c>
       <c r="D104">
-        <v>-0.03993287057257899</v>
+        <v>-0.9878838582609163</v>
+      </c>
+      <c r="E104">
+        <v>-0.04892551517438181</v>
+      </c>
+      <c r="F104">
+        <v>0.03328712125754352</v>
+      </c>
+      <c r="G104">
+        <v>0.03687952772886025</v>
       </c>
     </row>
   </sheetData>
